--- a/ui_defaults_test_result.xlsx
+++ b/ui_defaults_test_result.xlsx
@@ -1744,32 +1744,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JOB02_019</t>
+          <t>JOB01_007</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4375</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>0.4513888888888889</v>
       </c>
       <c r="H39" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1778,32 +1778,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JOB02_020</t>
+          <t>JOB01_008</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F40" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4375</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>0.4513888888888889</v>
       </c>
       <c r="H40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -1812,32 +1812,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JOB02_021</t>
+          <t>JOB01_009</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F41" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="H41" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1846,32 +1846,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JOB02_022</t>
+          <t>JOB01_010</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="H42" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1880,32 +1880,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JOB02_023</t>
+          <t>JOB01_011</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F43" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JOB01_007</t>
+          <t>JOB01_012</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1929,14 +1929,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F44" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>20</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JOB01_008</t>
+          <t>JOB01_015</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F45" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="H45" t="n">
         <v>20</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JOB01_009</t>
+          <t>JOB01_016</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F46" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="H46" t="n">
         <v>20</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JOB01_010</t>
+          <t>JOB01_017</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2031,14 +2031,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F47" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="H47" t="n">
         <v>20</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JOB01_011</t>
+          <t>JOB01_018</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2065,14 +2065,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F48" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="H48" t="n">
         <v>20</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JOB01_012</t>
+          <t>JOB01_019</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F49" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="H49" t="n">
         <v>20</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JOB01_015</t>
+          <t>JOB01_020</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2133,14 +2133,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>20</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JOB01_016</t>
+          <t>JOB01_021</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2167,14 +2167,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F51" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="H51" t="n">
         <v>20</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JOB01_017</t>
+          <t>JOB01_022</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F52" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="H52" t="n">
         <v>20</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JOB01_018</t>
+          <t>JOB01_023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2235,14 +2235,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F53" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="H53" t="n">
         <v>20</v>
@@ -2254,12 +2254,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JOB01_019</t>
+          <t>JOB02_002</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2269,14 +2269,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F54" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="H54" t="n">
         <v>20</v>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JOB01_020</t>
+          <t>JOB02_001</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F55" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="H55" t="n">
         <v>20</v>
@@ -2322,12 +2322,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JOB01_021</t>
+          <t>JOB02_004</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2337,14 +2337,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F56" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5625</v>
       </c>
       <c r="H56" t="n">
         <v>20</v>
@@ -2356,12 +2356,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JOB01_022</t>
+          <t>JOB02_003</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2371,14 +2371,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F57" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="H57" t="n">
         <v>20</v>
@@ -2390,12 +2390,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JOB01_023</t>
+          <t>JOB02_006</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2405,14 +2405,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F58" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5625</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="H58" t="n">
         <v>20</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JOB02_002</t>
+          <t>JOB02_005</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2439,14 +2439,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H59" t="n">
         <v>20</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JOB02_001</t>
+          <t>JOB02_008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2473,14 +2473,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H60" t="n">
         <v>20</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JOB02_004</t>
+          <t>JOB02_019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2502,22 +2502,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F61" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOB02_003</t>
+          <t>JOB02_020</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2536,22 +2536,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F62" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOB02_006</t>
+          <t>JOB02_021</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2570,22 +2570,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F63" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JOB02_005</t>
+          <t>JOB02_022</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2604,22 +2604,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F64" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JOB02_008</t>
+          <t>JOB02_023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F65" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">

--- a/ui_defaults_test_result.xlsx
+++ b/ui_defaults_test_result.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JOB01_001</t>
+          <t>JOB01_014</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,22 +496,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JOB01_002</t>
+          <t>JOB01_016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,22 +530,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JOB01_003</t>
+          <t>JOB01_013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,22 +564,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JOB01_004</t>
+          <t>JOB01_018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,22 +598,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JOB01_005</t>
+          <t>JOB01_013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,14 +637,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="H6" t="n">
         <v>30</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JOB01_006</t>
+          <t>JOB01_014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,14 +671,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="H7" t="n">
         <v>30</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JOB01_007</t>
+          <t>JOB01_015</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="H8" t="n">
         <v>30</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JOB01_008</t>
+          <t>JOB01_016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="H9" t="n">
         <v>30</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JOB01_009</t>
+          <t>JOB01_017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="H10" t="n">
         <v>30</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JOB01_010</t>
+          <t>JOB01_018</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="H11" t="n">
         <v>30</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JOB01_011</t>
+          <t>JOB01_021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +860,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JOB01_012</t>
+          <t>JOB01_023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -870,22 +870,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -894,7 +894,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JOB01_013</t>
+          <t>JOB01_022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -909,14 +909,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="H14" t="n">
         <v>20</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JOB01_014</t>
+          <t>JOB01_017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -943,14 +943,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.375</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="H15" t="n">
         <v>20</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JOB01_001</t>
+          <t>JOB01_015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -977,14 +977,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H16" t="n">
         <v>20</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JOB01_002</t>
+          <t>JOB01_019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1006,22 +1006,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JOB01_019</t>
+          <t>JOB01_020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="H18" t="n">
         <v>30</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JOB01_020</t>
+          <t>JOB01_021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1079,14 +1079,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="H19" t="n">
         <v>30</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JOB01_021</t>
+          <t>JOB01_022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1113,14 +1113,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="H20" t="n">
         <v>30</v>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JOB01_022</t>
+          <t>JOB01_023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="H21" t="n">
         <v>30</v>
@@ -1166,32 +1166,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JOB01_023</t>
+          <t>JOB02_011</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4375</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="H22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JOB02_001</t>
+          <t>JOB02_012</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1210,22 +1210,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1234,32 +1234,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOB02_002</t>
+          <t>JOB01_019</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1268,32 +1268,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOB02_003</t>
+          <t>JOB01_020</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JOB02_004</t>
+          <t>JOB02_007</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H26" t="n">
         <v>30</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JOB02_005</t>
+          <t>JOB02_008</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H27" t="n">
         <v>30</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JOB02_006</t>
+          <t>JOB02_009</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H28" t="n">
         <v>30</v>
@@ -1404,32 +1404,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOB01_003</t>
+          <t>JOB02_010</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1438,32 +1438,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JOB01_004</t>
+          <t>JOB02_011</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1472,32 +1472,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JOB01_005</t>
+          <t>JOB02_012</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JOB01_006</t>
+          <t>JOB02_014</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1521,14 +1521,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F32" s="3" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H32" t="n">
         <v>20</v>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JOB02_013</t>
+          <t>JOB02_016</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1550,22 +1550,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JOB02_014</t>
+          <t>JOB02_007</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1584,22 +1584,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JOB02_015</t>
+          <t>JOB02_008</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1618,22 +1618,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JOB02_016</t>
+          <t>JOB02_013</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H36" t="n">
         <v>30</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JOB02_017</t>
+          <t>JOB02_014</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H37" t="n">
         <v>30</v>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JOB02_018</t>
+          <t>JOB02_015</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1729,10 +1729,10 @@
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H38" t="n">
         <v>30</v>
@@ -1744,32 +1744,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JOB01_007</t>
+          <t>JOB02_016</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H39" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1778,32 +1778,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JOB01_008</t>
+          <t>JOB02_017</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F40" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1812,32 +1812,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JOB01_009</t>
+          <t>JOB02_018</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F41" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H41" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JOB01_010</t>
+          <t>JOB02_009</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H42" t="n">
         <v>20</v>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JOB01_011</t>
+          <t>JOB02_010</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="F43" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="H43" t="n">
         <v>20</v>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JOB01_012</t>
+          <t>JOB02_013</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="F44" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H44" t="n">
         <v>20</v>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JOB01_015</t>
+          <t>JOB02_017</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="F45" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H45" t="n">
         <v>20</v>
@@ -1982,12 +1982,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JOB01_016</t>
+          <t>JOB02_015</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F46" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>20</v>
@@ -2016,12 +2016,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JOB01_017</t>
+          <t>JOB02_018</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2031,14 +2031,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F47" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>20</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JOB01_018</t>
+          <t>JOB01_002</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="F48" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H48" t="n">
         <v>20</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JOB01_019</t>
+          <t>JOB01_004</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="F49" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H49" t="n">
         <v>20</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JOB01_020</t>
+          <t>JOB01_001</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="H50" t="n">
         <v>20</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JOB01_021</t>
+          <t>JOB01_006</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2171,10 +2171,10 @@
         </is>
       </c>
       <c r="F51" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="H51" t="n">
         <v>20</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JOB01_022</t>
+          <t>JOB01_001</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2196,22 +2196,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F52" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JOB01_023</t>
+          <t>JOB01_002</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2230,22 +2230,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F53" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -2254,32 +2254,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JOB02_002</t>
+          <t>JOB01_003</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F54" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H54" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -2288,32 +2288,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JOB02_001</t>
+          <t>JOB01_004</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F55" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H55" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -2322,32 +2322,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JOB02_004</t>
+          <t>JOB01_005</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F56" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -2356,32 +2356,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JOB02_003</t>
+          <t>JOB01_006</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F57" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H57" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -2390,12 +2390,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JOB02_006</t>
+          <t>JOB01_008</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="F58" s="3" t="n">
-        <v>0.5625</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>20</v>
@@ -2424,12 +2424,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JOB02_005</t>
+          <t>JOB01_010</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2443,10 +2443,10 @@
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>20</v>
@@ -2458,32 +2458,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JOB02_008</t>
+          <t>JOB01_007</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -2492,12 +2492,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JOB02_019</t>
+          <t>JOB01_008</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOB02_020</t>
+          <t>JOB01_009</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOB02_021</t>
+          <t>JOB01_010</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JOB02_022</t>
+          <t>JOB01_011</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JOB02_023</t>
+          <t>JOB01_012</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JOB02_007</t>
+          <t>JOB01_003</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F66" s="3" t="n">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JOB02_010</t>
+          <t>JOB01_005</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F67" s="3" t="n">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JOB02_009</t>
+          <t>JOB01_007</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F68" s="3" t="n">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JOB02_012</t>
+          <t>JOB01_011</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F69" s="3" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JOB02_011</t>
+          <t>JOB01_009</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2832,12 +2832,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JOB02_014</t>
+          <t>JOB01_012</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JOB02_013</t>
+          <t>JOB02_020</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JOB02_016</t>
+          <t>JOB02_022</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JOB02_015</t>
+          <t>JOB02_019</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2944,22 +2944,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F74" s="3" t="n">
         <v>0.6458333333333334</v>
       </c>
       <c r="G74" s="3" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H74" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JOB02_018</t>
+          <t>JOB02_020</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2978,22 +2978,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F75" s="3" t="n">
         <v>0.6458333333333334</v>
       </c>
       <c r="G75" s="3" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H75" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JOB02_017</t>
+          <t>JOB02_021</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3012,22 +3012,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F76" s="3" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="G76" s="3" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H76" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JOB02_020</t>
+          <t>JOB02_022</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3046,22 +3046,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F77" s="3" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JOB02_019</t>
+          <t>JOB02_023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3080,22 +3080,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F78" s="3" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H78" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JOB02_022</t>
+          <t>JOB02_004</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="F79" s="3" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H79" t="n">
         <v>20</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JOB02_021</t>
+          <t>JOB02_005</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3157,10 +3157,10 @@
         </is>
       </c>
       <c r="F80" s="3" t="n">
-        <v>0.6875</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>0.7013888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>20</v>
@@ -3172,31 +3172,439 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>JOB02_001</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="H81" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JOB02_002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="H82" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>JOB02_003</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="H83" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>JOB02_004</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="H84" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>JOB02_005</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="H85" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JOB02_006</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="H86" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JOB02_019</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="H87" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>JOB02_021</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="H88" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>JOB02_023</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>JOB02</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>발표준비+발표면접</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="H89" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>JOB02_003</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>발표면접실A</t>
         </is>
       </c>
-      <c r="F81" s="3" t="n">
+      <c r="F90" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G90" s="3" t="n">
         <v>0.7013888888888888</v>
       </c>
-      <c r="G81" s="3" t="n">
+      <c r="H90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>JOB02_002</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="H91" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>JOB02_001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="G92" s="3" t="n">
         <v>0.7152777777777778</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H92" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>JOB02_006</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>JOB02</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="H93" t="n">
         <v>20</v>
       </c>
     </row>

--- a/ui_defaults_test_result.xlsx
+++ b/ui_defaults_test_result.xlsx
@@ -1540,32 +1540,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JOB02_013</t>
+          <t>JOB01_007</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4375</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>0.4513888888888889</v>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1574,32 +1574,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JOB02_014</t>
+          <t>JOB01_008</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4375</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>0.4513888888888889</v>
       </c>
       <c r="H34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1608,32 +1608,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JOB02_015</t>
+          <t>JOB01_009</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="H35" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1642,32 +1642,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JOB02_016</t>
+          <t>JOB01_010</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="H36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JOB02_017</t>
+          <t>JOB01_011</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1710,32 +1710,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JOB02_018</t>
+          <t>JOB01_012</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JOB02</t>
+          <t>JOB01</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>토론면접실B</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JOB01_007</t>
+          <t>JOB01_015</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="H39" t="n">
         <v>20</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JOB01_008</t>
+          <t>JOB01_016</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="F40" s="3" t="n">
-        <v>0.4375</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="H40" t="n">
         <v>20</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JOB01_009</t>
+          <t>JOB01_017</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="F41" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="H41" t="n">
         <v>20</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JOB01_010</t>
+          <t>JOB01_018</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="H42" t="n">
         <v>20</v>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JOB01_011</t>
+          <t>JOB01_019</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="F43" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>20</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JOB01_012</t>
+          <t>JOB01_020</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="F44" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>20</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JOB01_015</t>
+          <t>JOB01_021</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="F45" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="H45" t="n">
         <v>20</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JOB01_016</t>
+          <t>JOB01_022</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="F46" s="3" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="H46" t="n">
         <v>20</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JOB01_017</t>
+          <t>JOB01_023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="F47" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="H47" t="n">
         <v>20</v>
@@ -2050,12 +2050,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JOB01_018</t>
+          <t>JOB02_002</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="F48" s="3" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="H48" t="n">
         <v>20</v>
@@ -2084,32 +2084,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JOB01_019</t>
+          <t>JOB02_013</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F49" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="H49" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -2118,32 +2118,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JOB01_020</t>
+          <t>JOB02_014</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -2152,32 +2152,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JOB01_021</t>
+          <t>JOB02_015</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F51" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5625</v>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JOB01_022</t>
+          <t>JOB02_016</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F52" s="3" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5625</v>
       </c>
       <c r="H52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -2220,32 +2220,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JOB01_023</t>
+          <t>JOB02_017</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>JOB01</t>
+          <t>JOB02</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F53" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5625</v>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JOB02_002</t>
+          <t>JOB02_018</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2264,22 +2264,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F54" s="3" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5625</v>
       </c>
       <c r="H54" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JOB02_001</t>
+          <t>JOB02_019</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2298,22 +2298,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F55" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G55" s="3" t="n">
         <v>0.5625</v>
       </c>
       <c r="H55" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JOB02_004</t>
+          <t>JOB02_020</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2332,22 +2332,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F56" s="3" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G56" s="3" t="n">
         <v>0.5625</v>
       </c>
       <c r="H56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JOB02_003</t>
+          <t>JOB02_021</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2366,22 +2366,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F57" s="3" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="G57" s="3" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G57" s="3" t="n">
-        <v>0.5763888888888888</v>
-      </c>
       <c r="H57" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JOB02_006</t>
+          <t>JOB02_022</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2400,22 +2400,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F58" s="3" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="G58" s="3" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G58" s="3" t="n">
-        <v>0.5763888888888888</v>
-      </c>
       <c r="H58" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JOB02_005</t>
+          <t>JOB02_023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2434,22 +2434,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>발표준비+발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실A</t>
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.5625</v>
       </c>
       <c r="H59" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JOB02_008</t>
+          <t>JOB02_001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2473,14 +2473,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.5625</v>
       </c>
       <c r="H60" t="n">
         <v>20</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JOB02_019</t>
+          <t>JOB02_004</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2502,22 +2502,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F61" s="3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="H61" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOB02_020</t>
+          <t>JOB02_003</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2536,22 +2536,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F62" s="3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="H62" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOB02_021</t>
+          <t>JOB02_006</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2570,22 +2570,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F63" s="3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="H63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JOB02_022</t>
+          <t>JOB02_005</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2604,22 +2604,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F64" s="3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H64" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JOB02_023</t>
+          <t>JOB02_008</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비+발표면접</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F65" s="3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H65" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
